--- a/PayMonitor/wyciag2.xlsx
+++ b/PayMonitor/wyciag2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Data odrzucenia</t>
   </si>
@@ -94,6 +94,12 @@
 GŁUŚ MARSZAŁEK LUKAS
 RAKIETNIKÓW 27/29 M.4564
 02-495 WARSZAWA</t>
+  </si>
+  <si>
+    <t>79102040270000130212345678
+Jan niezbędny
+UL. DRUŻBY NARODOW 77  M.3
+KAMIENSKIE</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,16 +720,42 @@
         <v>3725.58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45726</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45726</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3725.58</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
